--- a/notebooks/ROR2/input/ROR2_Robinow_individuals.xlsx
+++ b/notebooks/ROR2/input/ROR2_Robinow_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/ROR2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E75EFC-84F0-B442-A604-56CEE2CFEDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E017CEB-9288-9147-B4CB-F88D6775D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="1280" windowWidth="29920" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="6720" windowWidth="29660" windowHeight="7000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="292">
   <si>
     <t>PMID</t>
   </si>
@@ -701,13 +701,208 @@
   </si>
   <si>
     <t>HP:0010034</t>
+  </si>
+  <si>
+    <t>PMID:22178368</t>
+  </si>
+  <si>
+    <t>Identification of a novel causative mutation in the ROR2 gene in a Lebanese family with a mild form of recessive Robinow syndrome</t>
+  </si>
+  <si>
+    <t>Congenital onset</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Relative macrocephaly</t>
+  </si>
+  <si>
+    <t>HP:0004482</t>
+  </si>
+  <si>
+    <t>P4Y</t>
+  </si>
+  <si>
+    <t>Phalangeal cone-shaped epiphyses</t>
+  </si>
+  <si>
+    <t>HP:0034281</t>
+  </si>
+  <si>
+    <t>P10Y</t>
+  </si>
+  <si>
+    <t>Dental crowding</t>
+  </si>
+  <si>
+    <t>HP:0000678</t>
+  </si>
+  <si>
+    <t>Macrotia</t>
+  </si>
+  <si>
+    <t>HP:0000400</t>
+  </si>
+  <si>
+    <t>Mesoaxial hand polydactyly</t>
+  </si>
+  <si>
+    <t>HP:0006159</t>
+  </si>
+  <si>
+    <t>P15Y</t>
+  </si>
+  <si>
+    <t>c.814C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_004551.2:p.(Arg272Cys)</t>
+  </si>
+  <si>
+    <t>PMID:17665217</t>
+  </si>
+  <si>
+    <t>Novel Robinow syndrome causing mutations in the proximal region of the frizzled-like domain of ROR2 are retained in the endoplasmic reticulum</t>
+  </si>
+  <si>
+    <t>first case</t>
+  </si>
+  <si>
+    <t>second case</t>
+  </si>
+  <si>
+    <t>Macrocephaly</t>
+  </si>
+  <si>
+    <t>HP:0000256</t>
+  </si>
+  <si>
+    <t>Ventricular septal defect</t>
+  </si>
+  <si>
+    <t>HP:0001629</t>
+  </si>
+  <si>
+    <t>P13Y</t>
+  </si>
+  <si>
+    <t>c.574T&gt;G</t>
+  </si>
+  <si>
+    <t>NP_004551.2:p.(Tyr192Asp)</t>
+  </si>
+  <si>
+    <t>c.730C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_004551.2:p.(Arg244Trp)</t>
+  </si>
+  <si>
+    <t>PMID:15952209</t>
+  </si>
+  <si>
+    <t>Clinical and molecular characterization of two adults with autosomal recessive Robinow syndrome</t>
+  </si>
+  <si>
+    <t>P28Y</t>
+  </si>
+  <si>
+    <t>Joint hypermobility</t>
+  </si>
+  <si>
+    <t>HP:0001382</t>
+  </si>
+  <si>
+    <t>Small nail</t>
+  </si>
+  <si>
+    <t>HP:0001792</t>
+  </si>
+  <si>
+    <t>Symphalangism affecting the proximal phalanx of the 5th finger</t>
+  </si>
+  <si>
+    <t>HP:0009232</t>
+  </si>
+  <si>
+    <t>P40Y</t>
+  </si>
+  <si>
+    <t>Dislocated radial head</t>
+  </si>
+  <si>
+    <t>HP:0003083</t>
+  </si>
+  <si>
+    <t>c.1937_1943del</t>
+  </si>
+  <si>
+    <t>c.1937_1943delACAAGCT</t>
+  </si>
+  <si>
+    <t>c.550C&gt;T</t>
+  </si>
+  <si>
+    <t>NP_004551.2:p.(Arg119Ter);p.(Arg184Cys)</t>
+  </si>
+  <si>
+    <t>del exon 4-5</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>yes/no/na</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>PMID:19640924</t>
+  </si>
+  <si>
+    <t>A gradient of ROR2 protein stability and membrane localization confers brachydactyly type B or Robinow syndrome phenotypes</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>Preaxial hand polydactyly</t>
+  </si>
+  <si>
+    <t>HP:0001177</t>
+  </si>
+  <si>
+    <t>2-3 finger cutaneous syndactyly</t>
+  </si>
+  <si>
+    <t>HP:0001233</t>
+  </si>
+  <si>
+    <t>Absent fifth toenail</t>
+  </si>
+  <si>
+    <t>HP:0200105</t>
+  </si>
+  <si>
+    <t>Foot oligodactyly</t>
+  </si>
+  <si>
+    <t>HP:0001849</t>
+  </si>
+  <si>
+    <t>p.(Arg442Ter)</t>
+  </si>
+  <si>
+    <t>P9M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,6 +937,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -809,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -834,9 +1036,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD27"/>
+  <dimension ref="A1:CT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="BF26" workbookViewId="0">
+      <selection activeCell="BG29" sqref="BG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1354,7 @@
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,212 +1397,260 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>223</v>
       </c>
+      <c r="CN1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="CO1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CP1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="CQ1" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR1" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="CS1" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="CT1" s="7" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1443,212 +1693,260 @@
       <c r="N2" t="s">
         <v>78</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="P2" t="s">
         <v>79</v>
       </c>
-      <c r="P2" t="s">
-        <v>80</v>
-      </c>
       <c r="Q2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s">
         <v>81</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>82</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>265</v>
+      </c>
+      <c r="U2" t="s">
         <v>83</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>84</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>85</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>86</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>87</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH2" t="s">
         <v>208</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AI2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK2" t="s">
         <v>210</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AL2" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AM2" t="s">
         <v>215</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AN2" t="s">
         <v>91</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AO2" t="s">
         <v>93</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AQ2" t="s">
         <v>226</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AR2" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AS2" t="s">
         <v>96</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>202</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>99</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>100</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>101</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>109</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>102</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>111</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>103</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>104</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>105</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>98</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>204</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>106</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>107</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>108</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BK2" t="s">
         <v>110</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BL2" t="s">
         <v>112</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BM2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN2" t="s">
         <v>113</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BO2" t="s">
         <v>186</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BP2" t="s">
         <v>188</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BQ2" t="s">
         <v>114</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BR2" t="s">
         <v>115</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BS2" t="s">
         <v>116</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BT2" t="s">
         <v>118</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>119</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
         <v>190</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BW2" t="s">
         <v>120</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BX2" t="s">
         <v>121</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BY2" t="s">
         <v>122</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BZ2" t="s">
         <v>123</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CA2" t="s">
         <v>124</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CB2" t="s">
         <v>125</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CC2" t="s">
         <v>126</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CD2" t="s">
         <v>127</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CE2" t="s">
         <v>128</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CF2" t="s">
         <v>129</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CG2" t="s">
         <v>130</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CH2" t="s">
         <v>131</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CI2" t="s">
         <v>132</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CJ2" t="s">
         <v>133</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CK2" t="s">
         <v>134</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CL2" t="s">
         <v>184</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CM2" t="s">
         <v>224</v>
       </c>
+      <c r="CN2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>232</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>235</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>238</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>240</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -1689,67 +1987,70 @@
         <v>199</v>
       </c>
       <c r="O3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P3" t="s">
         <v>200</v>
       </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK3" t="s">
         <v>182</v>
       </c>
       <c r="AL3" t="s">
         <v>182</v>
       </c>
-      <c r="AN3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AO3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU3" t="s">
         <v>182</v>
       </c>
       <c r="AW3" t="s">
         <v>182</v>
       </c>
-      <c r="AX3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR3" t="s">
+      <c r="AY3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM3" t="s">
         <v>182</v>
       </c>
       <c r="BW3" t="s">
         <v>182</v>
       </c>
-      <c r="BY3" t="s">
-        <v>182</v>
-      </c>
-      <c r="CD3" t="s">
+      <c r="BZ3" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -1790,55 +2091,58 @@
         <v>213</v>
       </c>
       <c r="O4" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" t="s">
         <v>200</v>
       </c>
-      <c r="P4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="Q4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>182</v>
       </c>
       <c r="AL4" t="s">
         <v>182</v>
       </c>
-      <c r="AN4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="AM4" t="s">
         <v>182</v>
       </c>
       <c r="AU4" t="s">
         <v>182</v>
       </c>
-      <c r="AV4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR4" t="s">
+      <c r="AW4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM4" t="s">
         <v>182</v>
       </c>
       <c r="BW4" t="s">
         <v>182</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="CA4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -1879,62 +2183,65 @@
         <v>222</v>
       </c>
       <c r="O5" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" t="s">
         <v>200</v>
       </c>
-      <c r="P5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>182</v>
+      <c r="Q5" t="s">
+        <v>80</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AA5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD5" s="6" t="s">
+      <c r="X5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>182</v>
       </c>
       <c r="AH5" t="s">
         <v>182</v>
       </c>
-      <c r="AL5" s="6"/>
-      <c r="AN5" t="s">
+      <c r="AL5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM5" s="6" t="s">
         <v>182</v>
       </c>
       <c r="AQ5" t="s">
         <v>182</v>
       </c>
-      <c r="AU5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CD5" t="s">
+      <c r="AU5" s="6"/>
+      <c r="AW5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -1972,13 +2279,13 @@
         <v>80</v>
       </c>
       <c r="O6" t="s">
+        <v>278</v>
+      </c>
+      <c r="P6" t="s">
         <v>191</v>
       </c>
-      <c r="P6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>181</v>
+      <c r="Q6" t="s">
+        <v>80</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>181</v>
@@ -1986,11 +2293,9 @@
       <c r="S6" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T6" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T6" s="8"/>
       <c r="U6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>181</v>
@@ -1999,40 +2304,30 @@
         <v>182</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="Y6" s="8" t="s">
         <v>182</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN6" s="9" t="s">
-        <v>182</v>
+        <v>80</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AL6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO6" s="8" t="s">
         <v>182</v>
@@ -2040,23 +2335,23 @@
       <c r="AP6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AQ6" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AR6" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU6" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AV6" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX6" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY6" s="8" t="s">
         <v>182</v>
@@ -2065,13 +2360,13 @@
         <v>181</v>
       </c>
       <c r="BA6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BD6" s="8" t="s">
         <v>182</v>
@@ -2079,14 +2374,8 @@
       <c r="BE6" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG6" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BH6" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BI6" s="8" t="s">
         <v>181</v>
@@ -2094,56 +2383,56 @@
       <c r="BJ6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK6" s="9" t="s">
-        <v>181</v>
+      <c r="BK6" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL6" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM6" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BN6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BO6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO6" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BP6" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BQ6" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BR6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BS6" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BT6" s="8" t="s">
-        <v>80</v>
+      <c r="BT6" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU6" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV6" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="BW6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BX6" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ6" s="8" t="s">
         <v>182</v>
       </c>
       <c r="CA6" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB6" s="8" t="s">
         <v>181</v>
@@ -2151,8 +2440,35 @@
       <c r="CC6" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="CD6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL6" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -2190,76 +2506,61 @@
         <v>80</v>
       </c>
       <c r="O7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" t="s">
         <v>80</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>80</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="T7" s="8"/>
       <c r="U7" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>182</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN7" s="9" t="s">
-        <v>182</v>
+        <v>80</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AL7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN7" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="AO7" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP7" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AR7" s="8" t="s">
         <v>181</v>
@@ -2270,20 +2571,23 @@
       <c r="AT7" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU7" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV7" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="AW7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX7" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="AY7" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ7" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BA7" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB7" s="8" t="s">
         <v>182</v>
@@ -2297,38 +2601,32 @@
       <c r="BE7" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG7" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BH7" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI7" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="BJ7" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK7" s="9" t="s">
-        <v>181</v>
+      <c r="BK7" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL7" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM7" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN7" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BO7" s="9" t="s">
-        <v>182</v>
+        <v>182</v>
+      </c>
+      <c r="BO7" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="BP7" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BQ7" s="8" t="s">
         <v>182</v>
@@ -2337,40 +2635,67 @@
         <v>182</v>
       </c>
       <c r="BS7" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT7" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="BT7" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU7" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV7" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BW7" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX7" s="8" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BX7" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="BY7" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="BZ7" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA7" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB7" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="CC7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL7" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -2408,25 +2733,23 @@
         <v>80</v>
       </c>
       <c r="O8" t="s">
+        <v>278</v>
+      </c>
+      <c r="P8" t="s">
         <v>191</v>
       </c>
-      <c r="P8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>181</v>
+      <c r="Q8" t="s">
+        <v>80</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="T8" s="8"/>
       <c r="U8" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>181</v>
@@ -2443,32 +2766,22 @@
       <c r="Z8" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN8" s="9" t="s">
-        <v>182</v>
+      <c r="AA8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AL8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN8" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="AO8" s="8" t="s">
         <v>182</v>
@@ -2476,24 +2789,24 @@
       <c r="AP8" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AQ8" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AR8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS8" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT8" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU8" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV8" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="AW8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX8" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="AY8" s="8" t="s">
         <v>182</v>
       </c>
@@ -2504,25 +2817,19 @@
         <v>182</v>
       </c>
       <c r="BB8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC8" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BD8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE8" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG8" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BH8" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BI8" s="8" t="s">
         <v>182</v>
@@ -2530,19 +2837,19 @@
       <c r="BJ8" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK8" s="9" t="s">
+      <c r="BK8" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BL8" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM8" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BN8" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BO8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO8" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BP8" s="8" t="s">
@@ -2552,13 +2859,13 @@
         <v>182</v>
       </c>
       <c r="BR8" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BS8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT8" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="BT8" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="BU8" s="8" t="s">
         <v>182</v>
@@ -2567,28 +2874,55 @@
         <v>80</v>
       </c>
       <c r="BW8" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BX8" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY8" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ8" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA8" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB8" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL8" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -2614,11 +2948,14 @@
         <v>77</v>
       </c>
       <c r="J9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L9" t="s">
         <v>194</v>
       </c>
-      <c r="K9" t="s">
-        <v>194</v>
-      </c>
       <c r="M9" t="s">
         <v>80</v>
       </c>
@@ -2626,28 +2963,26 @@
         <v>80</v>
       </c>
       <c r="O9" t="s">
+        <v>278</v>
+      </c>
+      <c r="P9" t="s">
         <v>191</v>
       </c>
-      <c r="P9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>182</v>
+      <c r="Q9" t="s">
+        <v>80</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>182</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="T9" s="8"/>
       <c r="U9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W9" s="8" t="s">
         <v>182</v>
@@ -2659,42 +2994,29 @@
         <v>182</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN9" s="9" t="s">
-        <v>182</v>
+        <v>182</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AL9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN9" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO9" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ9" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AR9" s="8" t="s">
@@ -2706,17 +3028,20 @@
       <c r="AT9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU9" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV9" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AW9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX9" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY9" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AZ9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BA9" s="8" t="s">
         <v>182</v>
@@ -2733,12 +3058,6 @@
       <c r="BE9" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG9" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="BH9" s="8" t="s">
         <v>181</v>
       </c>
@@ -2748,65 +3067,92 @@
       <c r="BJ9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK9" s="9" t="s">
-        <v>181</v>
+      <c r="BK9" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL9" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BM9" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO9" s="9" t="s">
-        <v>182</v>
+      <c r="BO9" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="BP9" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BQ9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BS9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT9" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="BT9" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU9" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BV9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BW9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX9" s="8" t="s">
-        <v>181</v>
+      <c r="BX9" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="BY9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ9" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA9" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB9" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CC9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CL9" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -2844,13 +3190,13 @@
         <v>80</v>
       </c>
       <c r="O10" t="s">
+        <v>278</v>
+      </c>
+      <c r="P10" t="s">
         <v>191</v>
       </c>
-      <c r="P10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>181</v>
+      <c r="Q10" t="s">
+        <v>80</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>181</v>
@@ -2858,20 +3204,18 @@
       <c r="S10" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T10" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T10" s="8"/>
       <c r="U10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>182</v>
@@ -2879,40 +3223,27 @@
       <c r="Z10" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AC10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN10" s="9" t="s">
-        <v>181</v>
+      <c r="AA10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AL10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN10" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AO10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AR10" s="8" t="s">
@@ -2924,107 +3255,131 @@
       <c r="AT10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU10" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW10" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AY10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ10" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA10" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BB10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BD10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE10" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BH10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK10" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BK10" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM10" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO10" s="9" t="s">
+      <c r="BO10" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BP10" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BQ10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BR10" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BS10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT10" s="8" t="s">
-        <v>182</v>
+        <v>182</v>
+      </c>
+      <c r="BT10" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BV10" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BW10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX10" s="8" t="s">
+      <c r="BX10" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ10" s="8" t="s">
         <v>182</v>
       </c>
       <c r="CA10" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB10" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC10" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="CD10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK10" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL10" s="8" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -3062,76 +3417,61 @@
         <v>80</v>
       </c>
       <c r="O11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" t="s">
         <v>191</v>
       </c>
-      <c r="P11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>182</v>
+      <c r="Q11" t="s">
+        <v>80</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="T11" s="8"/>
       <c r="U11" s="8" t="s">
         <v>182</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W11" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y11" s="8" t="s">
         <v>182</v>
       </c>
       <c r="Z11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG11" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AL11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN11" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AO11" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR11" s="8" t="s">
         <v>182</v>
@@ -3142,20 +3482,23 @@
       <c r="AT11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU11" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV11" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="AW11" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX11" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY11" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AZ11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BB11" s="8" t="s">
         <v>182</v>
@@ -3164,40 +3507,34 @@
         <v>182</v>
       </c>
       <c r="BD11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BE11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF11" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BH11" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK11" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BK11" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL11" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN11" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BO11" s="9" t="s">
-        <v>181</v>
+      <c r="BO11" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP11" s="8" t="s">
         <v>181</v>
@@ -3211,38 +3548,65 @@
       <c r="BS11" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BT11" s="8" t="s">
-        <v>80</v>
+      <c r="BT11" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU11" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV11" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BW11" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BX11" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB11" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CC11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL11" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -3280,13 +3644,13 @@
         <v>80</v>
       </c>
       <c r="O12" t="s">
+        <v>278</v>
+      </c>
+      <c r="P12" t="s">
         <v>191</v>
       </c>
-      <c r="P12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>181</v>
+      <c r="Q12" t="s">
+        <v>80</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>181</v>
@@ -3294,53 +3658,41 @@
       <c r="S12" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T12" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T12" s="8"/>
       <c r="U12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W12" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z12" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AC12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN12" s="9" t="s">
-        <v>182</v>
+      <c r="AA12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AL12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN12" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO12" s="8" t="s">
         <v>182</v>
@@ -3348,22 +3700,22 @@
       <c r="AP12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AQ12" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AR12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU12" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX12" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AY12" s="8" t="s">
@@ -3373,37 +3725,31 @@
         <v>181</v>
       </c>
       <c r="BA12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BB12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC12" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BD12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BH12" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK12" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BK12" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL12" s="8" t="s">
         <v>182</v>
@@ -3412,55 +3758,82 @@
         <v>182</v>
       </c>
       <c r="BN12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BO12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO12" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BP12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BQ12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR12" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BS12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT12" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="BT12" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU12" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW12" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BX12" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY12" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BZ12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA12" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB12" s="8" t="s">
         <v>181</v>
       </c>
       <c r="CC12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF12" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH12" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL12" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -3498,25 +3871,23 @@
         <v>80</v>
       </c>
       <c r="O13" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" t="s">
         <v>191</v>
       </c>
-      <c r="P13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>182</v>
+      <c r="Q13" t="s">
+        <v>80</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T13" s="8" t="s">
-        <v>182</v>
-      </c>
+      <c r="T13" s="8"/>
       <c r="U13" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>182</v>
@@ -3525,40 +3896,30 @@
         <v>182</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>182</v>
       </c>
       <c r="Z13" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN13" s="9" t="s">
-        <v>182</v>
+        <v>80</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AL13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN13" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO13" s="8" t="s">
         <v>182</v>
@@ -3566,23 +3927,23 @@
       <c r="AP13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AQ13" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AR13" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AS13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU13" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="AW13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX13" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY13" s="8" t="s">
         <v>182</v>
@@ -3594,23 +3955,17 @@
         <v>182</v>
       </c>
       <c r="BB13" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC13" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BD13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BE13" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG13" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BH13" s="8" t="s">
         <v>182</v>
       </c>
@@ -3620,7 +3975,7 @@
       <c r="BJ13" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK13" s="9" t="s">
+      <c r="BK13" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BL13" s="8" t="s">
@@ -3632,53 +3987,80 @@
       <c r="BN13" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BO13" s="9" t="s">
-        <v>182</v>
+      <c r="BO13" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="BP13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BQ13" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BR13" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BS13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="BT13" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="BU13" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BV13" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BW13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BX13" s="9" t="s">
         <v>182</v>
       </c>
       <c r="BY13" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ13" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA13" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB13" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL13" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -3716,13 +4098,13 @@
         <v>80</v>
       </c>
       <c r="O14" t="s">
+        <v>278</v>
+      </c>
+      <c r="P14" t="s">
         <v>191</v>
       </c>
-      <c r="P14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>181</v>
+      <c r="Q14" t="s">
+        <v>80</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>181</v>
@@ -3730,14 +4112,12 @@
       <c r="S14" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T14" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T14" s="8"/>
       <c r="U14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>182</v>
@@ -3749,33 +4129,23 @@
         <v>182</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC14" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE14" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AL14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN14" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AO14" s="8" t="s">
@@ -3784,9 +4154,6 @@
       <c r="AP14" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AQ14" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AR14" s="8" t="s">
         <v>182</v>
       </c>
@@ -3796,17 +4163,20 @@
       <c r="AT14" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU14" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV14" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="AW14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX14" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY14" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AZ14" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA14" s="8" t="s">
         <v>182</v>
@@ -3821,82 +4191,103 @@
         <v>182</v>
       </c>
       <c r="BE14" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF14" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG14" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BH14" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ14" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK14" s="9" t="s">
-        <v>181</v>
+      <c r="BK14" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL14" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM14" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN14" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO14" s="9" t="s">
-        <v>181</v>
+      <c r="BO14" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BQ14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR14" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BS14" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT14" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="BT14" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU14" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BW14" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX14" s="8" t="s">
+      <c r="BX14" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY14" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BZ14" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA14" s="8" t="s">
         <v>182</v>
       </c>
       <c r="CB14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CC14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CK14" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CL14" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -3934,12 +4325,12 @@
         <v>80</v>
       </c>
       <c r="O15" t="s">
+        <v>278</v>
+      </c>
+      <c r="P15" t="s">
         <v>191</v>
       </c>
-      <c r="P15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" t="s">
         <v>80</v>
       </c>
       <c r="R15" s="8" t="s">
@@ -3948,11 +4339,9 @@
       <c r="S15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T15" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="T15" s="8"/>
       <c r="U15" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>80</v>
@@ -3964,73 +4353,63 @@
         <v>80</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AC15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN15" s="9" t="s">
-        <v>182</v>
+      <c r="AA15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AL15" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="AO15" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP15" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ15" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AR15" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AS15" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT15" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU15" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV15" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="AW15" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY15" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ15" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BA15" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BB15" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC15" s="8" t="s">
         <v>182</v>
@@ -4039,55 +4418,49 @@
         <v>182</v>
       </c>
       <c r="BE15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF15" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG15" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BH15" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI15" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="BJ15" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK15" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BK15" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BL15" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM15" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BN15" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO15" s="9" t="s">
-        <v>181</v>
+      <c r="BO15" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP15" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BQ15" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BR15" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BS15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT15" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="BT15" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="BU15" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BV15" s="8" t="s">
         <v>80</v>
@@ -4095,26 +4468,53 @@
       <c r="BW15" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX15" s="8" t="s">
+      <c r="BX15" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY15" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BZ15" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="CA15" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB15" s="8" t="s">
         <v>80</v>
       </c>
       <c r="CC15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF15" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CI15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CJ15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL15" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -4152,28 +4552,26 @@
         <v>80</v>
       </c>
       <c r="O16" t="s">
+        <v>278</v>
+      </c>
+      <c r="P16" t="s">
         <v>191</v>
       </c>
-      <c r="P16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>182</v>
+      <c r="Q16" t="s">
+        <v>80</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T16" s="8"/>
       <c r="U16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W16" s="8" t="s">
         <v>182</v>
@@ -4187,44 +4585,31 @@
       <c r="Z16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AC16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN16" s="9" t="s">
-        <v>182</v>
+      <c r="AA16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AL16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN16" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO16" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS16" s="8" t="s">
         <v>181</v>
@@ -4232,23 +4617,26 @@
       <c r="AT16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU16" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV16" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="AW16" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX16" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY16" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AZ16" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA16" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BB16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC16" s="8" t="s">
         <v>182</v>
@@ -4259,38 +4647,32 @@
       <c r="BE16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF16" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG16" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BH16" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK16" s="9" t="s">
-        <v>181</v>
+      <c r="BK16" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL16" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM16" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO16" s="9" t="s">
+      <c r="BO16" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BP16" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BQ16" s="8" t="s">
         <v>182</v>
@@ -4299,40 +4681,67 @@
         <v>182</v>
       </c>
       <c r="BS16" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT16" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="BT16" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU16" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BW16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX16" s="8" t="s">
+      <c r="BX16" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ16" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA16" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="CC16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CL16" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -4370,103 +4779,91 @@
         <v>80</v>
       </c>
       <c r="O17" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" t="s">
         <v>191</v>
       </c>
-      <c r="P17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>181</v>
+      <c r="Q17" t="s">
+        <v>80</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="T17" s="8"/>
       <c r="U17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W17" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z17" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AC17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE17" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK17" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN17" s="9" t="s">
-        <v>182</v>
+      <c r="AA17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AL17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN17" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO17" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP17" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ17" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AR17" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AS17" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU17" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AV17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW17" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX17" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AY17" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AZ17" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA17" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BB17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC17" s="8" t="s">
         <v>182</v>
@@ -4477,23 +4874,17 @@
       <c r="BE17" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BF17" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG17" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="BH17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BI17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK17" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BK17" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL17" s="8" t="s">
         <v>182</v>
@@ -4502,55 +4893,82 @@
         <v>182</v>
       </c>
       <c r="BN17" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BO17" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BO17" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP17" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BQ17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR17" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BS17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT17" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BU17" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BV17" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BW17" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX17" s="8" t="s">
-        <v>182</v>
+      <c r="BX17" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BY17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ17" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA17" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB17" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL17" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -4588,25 +5006,23 @@
         <v>80</v>
       </c>
       <c r="O18" t="s">
+        <v>278</v>
+      </c>
+      <c r="P18" t="s">
         <v>191</v>
       </c>
-      <c r="P18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" t="s">
         <v>80</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>182</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="T18" s="8"/>
       <c r="U18" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V18" s="8" t="s">
         <v>182</v>
@@ -4623,32 +5039,22 @@
       <c r="Z18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AC18" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE18" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF18" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG18" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI18" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ18" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK18" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM18" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN18" s="9" t="s">
-        <v>182</v>
+      <c r="AA18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AL18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN18" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO18" s="8" t="s">
         <v>182</v>
@@ -4656,24 +5062,24 @@
       <c r="AP18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AQ18" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AR18" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS18" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU18" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV18" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="AW18" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX18" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="AY18" s="8" t="s">
         <v>182</v>
       </c>
@@ -4684,7 +5090,7 @@
         <v>182</v>
       </c>
       <c r="BB18" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC18" s="8" t="s">
         <v>182</v>
@@ -4695,12 +5101,6 @@
       <c r="BE18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF18" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG18" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BH18" s="8" t="s">
         <v>182</v>
       </c>
@@ -4710,8 +5110,8 @@
       <c r="BJ18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK18" s="9" t="s">
-        <v>181</v>
+      <c r="BK18" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL18" s="8" t="s">
         <v>182</v>
@@ -4722,7 +5122,7 @@
       <c r="BN18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO18" s="9" t="s">
+      <c r="BO18" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BP18" s="8" t="s">
@@ -4732,43 +5132,70 @@
         <v>182</v>
       </c>
       <c r="BR18" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BS18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT18" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="BT18" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU18" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV18" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BW18" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX18" s="8" t="s">
+      <c r="BX18" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY18" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ18" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA18" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB18" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG18" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI18" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ18" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK18" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL18" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -4806,13 +5233,13 @@
         <v>80</v>
       </c>
       <c r="O19" t="s">
+        <v>278</v>
+      </c>
+      <c r="P19" t="s">
         <v>191</v>
       </c>
-      <c r="P19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>181</v>
+      <c r="Q19" t="s">
+        <v>80</v>
       </c>
       <c r="R19" s="8" t="s">
         <v>181</v>
@@ -4820,62 +5247,47 @@
       <c r="S19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T19" s="8" t="s">
-        <v>182</v>
-      </c>
+      <c r="T19" s="8"/>
       <c r="U19" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="W19" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE19" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN19" s="9" t="s">
-        <v>182</v>
+        <v>80</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AL19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN19" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO19" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ19" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AR19" s="8" t="s">
         <v>182</v>
@@ -4886,10 +5298,13 @@
       <c r="AT19" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU19" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AV19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX19" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AY19" s="8" t="s">
@@ -4913,53 +5328,47 @@
       <c r="BE19" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG19" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="BH19" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI19" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BJ19" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK19" s="9" t="s">
-        <v>181</v>
+      <c r="BK19" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL19" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM19" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN19" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO19" s="9" t="s">
+      <c r="BO19" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BP19" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BQ19" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR19" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BS19" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BT19" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
+      </c>
+      <c r="BT19" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU19" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV19" s="8" t="s">
         <v>181</v>
@@ -4967,26 +5376,53 @@
       <c r="BW19" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX19" s="8" t="s">
+      <c r="BX19" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY19" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ19" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA19" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB19" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="CC19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CL19" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -5024,103 +5460,91 @@
         <v>80</v>
       </c>
       <c r="O20" t="s">
+        <v>278</v>
+      </c>
+      <c r="P20" t="s">
         <v>191</v>
       </c>
-      <c r="P20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>181</v>
+      <c r="Q20" t="s">
+        <v>80</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="T20" s="8"/>
       <c r="U20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W20" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z20" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AC20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN20" s="9" t="s">
-        <v>182</v>
+      <c r="AA20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AL20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN20" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO20" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ20" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AR20" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AS20" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT20" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU20" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX20" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AY20" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AZ20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BA20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC20" s="8" t="s">
         <v>182</v>
@@ -5131,14 +5555,8 @@
       <c r="BE20" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BF20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG20" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BH20" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BI20" s="8" t="s">
         <v>182</v>
@@ -5146,20 +5564,20 @@
       <c r="BJ20" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK20" s="9" t="s">
+      <c r="BK20" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BL20" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BM20" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN20" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BO20" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BO20" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP20" s="8" t="s">
         <v>181</v>
@@ -5168,43 +5586,70 @@
         <v>182</v>
       </c>
       <c r="BR20" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BS20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT20" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="BT20" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="BU20" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BV20" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BW20" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX20" s="8" t="s">
+      <c r="BX20" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY20" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ20" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA20" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB20" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL20" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -5242,13 +5687,13 @@
         <v>80</v>
       </c>
       <c r="O21" t="s">
+        <v>278</v>
+      </c>
+      <c r="P21" t="s">
         <v>191</v>
       </c>
-      <c r="P21" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>181</v>
+      <c r="Q21" t="s">
+        <v>80</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>181</v>
@@ -5256,14 +5701,12 @@
       <c r="S21" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T21" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T21" s="8"/>
       <c r="U21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W21" s="8" t="s">
         <v>182</v>
@@ -5275,46 +5718,33 @@
         <v>182</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AL21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN21" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AO21" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS21" s="8" t="s">
         <v>181</v>
@@ -5322,23 +5752,26 @@
       <c r="AT21" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU21" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV21" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="AW21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX21" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="AY21" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AZ21" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA21" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BB21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC21" s="8" t="s">
         <v>182</v>
@@ -5349,23 +5782,17 @@
       <c r="BE21" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BF21" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG21" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="BH21" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK21" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BK21" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL21" s="8" t="s">
         <v>182</v>
@@ -5376,53 +5803,80 @@
       <c r="BN21" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BO21" s="9" t="s">
-        <v>181</v>
+      <c r="BO21" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP21" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BQ21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR21" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BS21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BT21" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BU21" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BV21" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BW21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="BX21" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BY21" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BZ21" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA21" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="CB21" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CK21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL21" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -5460,13 +5914,13 @@
         <v>80</v>
       </c>
       <c r="O22" t="s">
+        <v>278</v>
+      </c>
+      <c r="P22" t="s">
         <v>191</v>
       </c>
-      <c r="P22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>181</v>
+      <c r="Q22" t="s">
+        <v>80</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>181</v>
@@ -5474,63 +5928,48 @@
       <c r="S22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T22" s="8"/>
       <c r="U22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W22" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AC22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE22" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF22" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG22" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI22" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ22" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM22" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN22" s="9" t="s">
+      <c r="AA22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AL22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN22" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AO22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AP22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AQ22" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AR22" s="8" t="s">
         <v>181</v>
       </c>
@@ -5540,76 +5979,73 @@
       <c r="AT22" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU22" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV22" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="AW22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX22" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY22" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AZ22" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BA22" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BB22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC22" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BD22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF22" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG22" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BH22" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BI22" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="BJ22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK22" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BK22" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL22" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BM22" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BN22" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO22" s="9" t="s">
-        <v>181</v>
+      <c r="BO22" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP22" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BQ22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR22" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BS22" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT22" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BU22" s="8" t="s">
@@ -5621,26 +6057,53 @@
       <c r="BW22" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX22" s="8" t="s">
+      <c r="BX22" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY22" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BZ22" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA22" s="8" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="CB22" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC22" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="CD22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CK22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL22" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -5678,13 +6141,13 @@
         <v>80</v>
       </c>
       <c r="O23" t="s">
+        <v>278</v>
+      </c>
+      <c r="P23" t="s">
         <v>191</v>
       </c>
-      <c r="P23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>181</v>
+      <c r="Q23" t="s">
+        <v>80</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>181</v>
@@ -5692,63 +6155,48 @@
       <c r="S23" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="T23" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="T23" s="8"/>
       <c r="U23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W23" s="8" t="s">
         <v>182</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z23" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AC23" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK23" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN23" s="9" t="s">
+      <c r="AA23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AL23" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN23" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AO23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AP23" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AQ23" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AR23" s="8" t="s">
         <v>181</v>
       </c>
@@ -5758,76 +6206,73 @@
       <c r="AT23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU23" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV23" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="AW23" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX23" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="AY23" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AZ23" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BA23" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BB23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC23" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BD23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE23" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG23" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BH23" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BI23" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="BJ23" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK23" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BK23" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL23" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BM23" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BN23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO23" s="9" t="s">
-        <v>181</v>
+      <c r="BO23" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP23" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BQ23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR23" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BS23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT23" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BU23" s="8" t="s">
@@ -5839,26 +6284,53 @@
       <c r="BW23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX23" s="8" t="s">
+      <c r="BX23" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY23" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BZ23" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA23" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB23" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC23" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="CD23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF23" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL23" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -5896,28 +6368,26 @@
         <v>80</v>
       </c>
       <c r="O24" t="s">
+        <v>278</v>
+      </c>
+      <c r="P24" t="s">
         <v>191</v>
       </c>
-      <c r="P24" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>181</v>
+      <c r="Q24" t="s">
+        <v>80</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="T24" s="8"/>
       <c r="U24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W24" s="8" t="s">
         <v>182</v>
@@ -5929,46 +6399,33 @@
         <v>182</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC24" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK24" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AL24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN24" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AO24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AP24" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS24" s="8" t="s">
         <v>181</v>
@@ -5976,23 +6433,26 @@
       <c r="AT24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU24" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW24" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX24" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AY24" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AZ24" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA24" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BB24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC24" s="8" t="s">
         <v>182</v>
@@ -6003,80 +6463,101 @@
       <c r="BE24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BF24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG24" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="BH24" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK24" s="9" t="s">
-        <v>181</v>
+      <c r="BK24" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BL24" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM24" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN24" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BO24" s="9" t="s">
-        <v>181</v>
+        <v>181</v>
+      </c>
+      <c r="BO24" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP24" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BQ24" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BR24" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BS24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT24" s="8" t="s">
-        <v>182</v>
+        <v>182</v>
+      </c>
+      <c r="BT24" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="BU24" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BV24" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BW24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX24" s="8" t="s">
+      <c r="BX24" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY24" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BZ24" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA24" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CB24" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="CC24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL24" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -6114,28 +6595,26 @@
         <v>80</v>
       </c>
       <c r="O25" t="s">
+        <v>278</v>
+      </c>
+      <c r="P25" t="s">
         <v>191</v>
       </c>
-      <c r="P25" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>181</v>
+      <c r="Q25" t="s">
+        <v>80</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="T25" s="8"/>
       <c r="U25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W25" s="8" t="s">
         <v>182</v>
@@ -6144,112 +6623,96 @@
         <v>182</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z25" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AC25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN25" s="9" t="s">
-        <v>182</v>
+      <c r="AA25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AL25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN25" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO25" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AP25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS25" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU25" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AV25" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="AW25" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX25" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="AY25" s="8" t="s">
         <v>182</v>
       </c>
       <c r="AZ25" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BA25" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BB25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC25" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BD25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BE25" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BH25" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BI25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BJ25" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BK25" s="9" t="s">
+      <c r="BK25" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BL25" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BM25" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN25" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BO25" s="9" t="s">
-        <v>181</v>
+      <c r="BO25" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BP25" s="8" t="s">
         <v>181</v>
@@ -6261,13 +6724,13 @@
         <v>182</v>
       </c>
       <c r="BS25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BT25" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="BT25" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="BU25" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="BV25" s="8" t="s">
         <v>181</v>
@@ -6275,26 +6738,53 @@
       <c r="BW25" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BX25" s="8" t="s">
+      <c r="BX25" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY25" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ25" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA25" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB25" s="8" t="s">
         <v>181</v>
       </c>
       <c r="CC25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH25" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL25" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -6332,25 +6822,23 @@
         <v>80</v>
       </c>
       <c r="O26" t="s">
+        <v>278</v>
+      </c>
+      <c r="P26" t="s">
         <v>191</v>
       </c>
-      <c r="P26" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>182</v>
+      <c r="Q26" t="s">
+        <v>80</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>182</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T26" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="T26" s="8"/>
       <c r="U26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V26" s="8" t="s">
         <v>181</v>
@@ -6359,40 +6847,30 @@
         <v>182</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y26" s="8" t="s">
         <v>182</v>
       </c>
       <c r="Z26" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE26" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG26" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI26" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN26" s="9" t="s">
-        <v>182</v>
+        <v>182</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AL26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN26" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="AO26" s="8" t="s">
         <v>182</v>
@@ -6400,35 +6878,35 @@
       <c r="AP26" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="AQ26" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="AR26" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AS26" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT26" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="AU26" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="AV26" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
+      </c>
+      <c r="AW26" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX26" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="AY26" s="8" t="s">
         <v>181</v>
       </c>
       <c r="AZ26" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BA26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BC26" s="8" t="s">
         <v>182</v>
@@ -6439,38 +6917,32 @@
       <c r="BE26" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BF26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG26" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="BH26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BI26" s="8" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="BJ26" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BK26" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK26" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BL26" s="8" t="s">
         <v>182</v>
       </c>
       <c r="BM26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BN26" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BO26" s="9" t="s">
+      <c r="BO26" s="8" t="s">
         <v>181</v>
       </c>
       <c r="BP26" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BQ26" s="8" t="s">
         <v>182</v>
@@ -6481,252 +6953,990 @@
       <c r="BS26" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BT26" s="8" t="s">
-        <v>80</v>
+      <c r="BT26" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="BU26" s="8" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="BV26" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW26" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BX26" s="9" t="s">
         <v>181</v>
       </c>
       <c r="BY26" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BZ26" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CA26" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB26" s="8" t="s">
         <v>181</v>
       </c>
       <c r="CC26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CI26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL26" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:81" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" t="s">
         <v>158</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" t="s">
         <v>140</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" s="10" t="s">
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" t="s">
+        <v>278</v>
+      </c>
+      <c r="P27" t="s">
         <v>191</v>
       </c>
-      <c r="P27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN27" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AS27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BC27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BD27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BH27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BI27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BJ27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BK27" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BN27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BO27" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BQ27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BS27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BU27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BV27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="BW27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BY27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BZ27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CA27" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="CB27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC27" s="11" t="s">
+      <c r="Q27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="X27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AL27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BT27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BV27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BX27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CE27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CH27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CI27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CJ27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CK27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL27" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="s">
+        <v>229</v>
+      </c>
+      <c r="N28" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" t="s">
+        <v>278</v>
+      </c>
+      <c r="P28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="W28" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="X28" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO28" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW28" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF28" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH28" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>236</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>233</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ28" t="s">
+        <v>236</v>
+      </c>
+      <c r="CR28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N29" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" t="s">
+        <v>278</v>
+      </c>
+      <c r="P29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="X29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF29" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>182</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>182</v>
+      </c>
+      <c r="CP29" t="s">
+        <v>182</v>
+      </c>
+      <c r="CQ29" t="s">
+        <v>182</v>
+      </c>
+      <c r="CR29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>278</v>
+      </c>
+      <c r="P30" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW30" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>182</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CQ30" t="s">
+        <v>182</v>
+      </c>
+      <c r="CS30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>278</v>
+      </c>
+      <c r="P31" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>80</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY31" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>181</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ31" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>80</v>
+      </c>
+      <c r="CQ31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>278</v>
+      </c>
+      <c r="P32" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>80</v>
+      </c>
+      <c r="T32" t="s">
+        <v>182</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM32" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR32" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ32" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>182</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>182</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>181</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>181</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" t="s">
+        <v>274</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>278</v>
+      </c>
+      <c r="P33" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>80</v>
+      </c>
+      <c r="T33" t="s">
+        <v>182</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT33" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ33" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>182</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>182</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" t="s">
+        <v>156</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S34" t="s">
+        <v>182</v>
+      </c>
+      <c r="T34" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ34" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CS34" t="s">
         <v>181</v>
       </c>
     </row>
